--- a/public/register.xlsx
+++ b/public/register.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedk/Desktop/pch badging hfyc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedk/projects/pch-hfyc/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FBDE45-186E-B74B-AA68-F436D7FA0378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8010B98A-708B-5343-A95D-D23658FC46D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12020" yWindow="760" windowWidth="15960" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4520" yWindow="760" windowWidth="23460" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - register" sheetId="1" r:id="rId1"/>
@@ -20,52 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Mohammed</t>
-  </si>
-  <si>
-    <t>Kareem</t>
-  </si>
-  <si>
-    <t>HFYC-1234</t>
-  </si>
-  <si>
-    <t>Hussein</t>
-  </si>
-  <si>
-    <t>Abdulsalam</t>
-  </si>
-  <si>
-    <t>HFYC-5544</t>
-  </si>
-  <si>
-    <t>Ali</t>
-  </si>
-  <si>
-    <t>Jabbour</t>
-  </si>
-  <si>
-    <t>HFYC-5523</t>
-  </si>
-  <si>
-    <t>Asaad</t>
-  </si>
-  <si>
-    <t>Al-Hussein</t>
-  </si>
-  <si>
-    <t>HFYC-6544</t>
-  </si>
-  <si>
-    <t>Raad</t>
-  </si>
-  <si>
-    <t>Hassan</t>
-  </si>
-  <si>
-    <t>HFYC-0054</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>First Name</t>
   </si>
@@ -110,14 +65,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -247,7 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -256,7 +211,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -265,10 +220,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1434,7 +1389,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1447,70 +1402,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>15</v>
+      <c r="A1" s="8" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>16</v>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>17</v>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
